--- a/Price Tracker/prices.xlsx
+++ b/Price Tracker/prices.xlsx
@@ -1,34 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66b97510e33847a9/Programming/Python/python-projects/Price Tracker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_3AB5F0559F7C6C0E6C2948B64A51E6BC0D4E70BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5715DD6-8FB8-412C-8D66-DCC2A304D8E0}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Loveseat and Recliner" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Loveseat and Recliner</t>
+  </si>
+  <si>
+    <t>https://www.ashleyfurniture.com/p/next-gen_gaucho_sofa_loveseat_and_recliner/APG-54203-3P.html</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +64,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -386,43 +346,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>3599.97</v>
+      </c>
+      <c r="E1">
+        <v>3599.97</v>
+      </c>
+      <c r="F1" s="1">
+        <v>45434.683638017967</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B2:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="2">
-      <c r="B2" t="n">
-        <v>3599.97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Price Tracker/prices.xlsx
+++ b/Price Tracker/prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/66b97510e33847a9/Programming/Python/python-projects/Price Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_3AB5F0559F7C6C0E6C2948B64A51E6BC0D4E70BB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5715DD6-8FB8-412C-8D66-DCC2A304D8E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_3AB54DF5997A7ABEEC61D4144FD8FE7E100E77E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Loveseat and Recliner</t>
   </si>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -66,7 +66,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,18 +347,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,11 +371,28 @@
       <c r="C1">
         <v>3599.97</v>
       </c>
-      <c r="E1">
+      <c r="D1">
         <v>3599.97</v>
       </c>
-      <c r="F1" s="1">
-        <v>45434.683638017967</v>
+      <c r="E1" s="1">
+        <v>45434.701642164349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3599.97</v>
+      </c>
+      <c r="D2">
+        <v>3599.97</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45434.702188650903</v>
       </c>
     </row>
   </sheetData>
